--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -90,35 +90,39 @@
   </si>
   <si>
     <t>电子发票开票、查询平台可行性分析</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>会议管理系统建设方案</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无纸化产品规划和需求研讨</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>华融金交中心现场实施</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无纸化专利研讨</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>哈尔滨消费金融无纸化交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>哈尔滨消费金融无纸化交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>哈尔滨消费金融无纸化交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品规划和需求研讨1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -142,114 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -268,9 +164,119 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -585,123 +591,120 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="18" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,946 +984,953 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <f>C3</f>
         <v>42856</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="16">
         <v>42856</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
         <v>18</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="19">
         <v>5</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="21">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="23">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
+      <c r="B6" s="30">
         <f>B7</f>
         <v>42856</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="24" t="str">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="34" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="34">
         <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
         <v>42856</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="34">
         <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
         <v>42857</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="34">
         <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
         <v>42858</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="34">
         <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
         <v>42859</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="34">
         <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
         <v>42860</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="34">
         <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
         <v>42861</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="48">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36">
         <f>E2</f>
         <v>42856</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="34">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="34">
         <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
         <v>42863</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="34">
         <f t="shared" si="0"/>
         <v>42864</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="34">
         <f t="shared" si="0"/>
         <v>42865</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="34">
         <f t="shared" si="0"/>
         <v>42866</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="34">
         <f t="shared" si="0"/>
         <v>42867</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="34">
         <f t="shared" si="0"/>
         <v>42868</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="34">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
         <v>42869</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="34">
         <f t="shared" si="0"/>
         <v>42871</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="34">
         <f t="shared" si="0"/>
         <v>42872</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="34">
         <f t="shared" si="0"/>
         <v>42873</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="34">
         <f t="shared" si="0"/>
         <v>42874</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="34">
         <f t="shared" si="0"/>
         <v>42875</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="24">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="34">
         <f t="shared" si="1"/>
         <v>42876</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="34">
         <f t="shared" si="0"/>
         <v>42878</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="34">
         <f t="shared" si="0"/>
         <v>42879</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="34">
         <f t="shared" si="0"/>
         <v>42880</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="34">
         <f t="shared" si="0"/>
         <v>42881</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="34">
         <f t="shared" si="0"/>
         <v>42882</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="G10" s="24">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="42"/>
+      <c r="G10" s="34">
         <f t="shared" si="1"/>
         <v>42883</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="34">
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="34">
         <f t="shared" si="0"/>
         <v>42885</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="34">
         <f t="shared" si="0"/>
         <v>42886</v>
       </c>
-      <c r="K10" s="24" t="str">
+      <c r="K10" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="24" t="str">
+      <c r="L10" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="24" t="str">
+      <c r="M10" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30">
         <f>B12</f>
         <v>42857</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="G11" s="24" t="str">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="24" t="str">
+      <c r="J11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="24" t="str">
+      <c r="K11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="24" t="str">
+      <c r="L11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="24" t="str">
+      <c r="M11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="48">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="36">
         <f>B7+1</f>
         <v>42857</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="48"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="G13" s="33" t="s">
+      <c r="E12" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="44"/>
+      <c r="G13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="33" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="G14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="G15" s="33" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="42"/>
+      <c r="G15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
+      <c r="A16" s="35"/>
+      <c r="B16" s="30">
         <f>B17</f>
         <v>42858</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="48">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36">
         <f>B12+1</f>
         <v>42858</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="35"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="G18" s="35"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="44"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
+      <c r="B20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
+      <c r="B21" s="30">
         <f>B22</f>
         <v>42859</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="48">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36">
         <f>B17+1</f>
         <v>42859</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
+      <c r="B26" s="30">
         <f>B27</f>
         <v>42860</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="48">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36">
         <f>B22+1</f>
         <v>42860</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
+      <c r="B30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
+      <c r="B31" s="30">
         <f>B32</f>
         <v>42861</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="48">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36">
         <f>B27+1</f>
         <v>42861</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
+      <c r="B35" s="42"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
+      <c r="B36" s="30">
         <f>B37</f>
         <v>42862</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="48">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36">
         <f>B32+1</f>
         <v>42862</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
+      <c r="B40" s="42"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="16">
         <f>C3+7</f>
         <v>42863</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14">
+      <c r="D41" s="16"/>
+      <c r="E41" s="17">
         <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
+      <c r="B43" s="30">
         <f>B44</f>
         <v>42863</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="48">
+      <c r="A44" s="35"/>
+      <c r="B44" s="36">
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="40"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
+      <c r="A48" s="35"/>
+      <c r="B48" s="30">
         <f>B49</f>
         <v>42864</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="48">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="38"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
+      <c r="A53" s="35"/>
+      <c r="B53" s="30">
         <f>B54</f>
         <v>42865</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="48">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
+      <c r="B57" s="42"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
+      <c r="B58" s="30">
         <f>B59</f>
         <v>42866</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="48">
+      <c r="A59" s="35"/>
+      <c r="B59" s="36">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
+      <c r="B62" s="42"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
+      <c r="B63" s="30">
         <f>B64</f>
         <v>42867</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="48">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
+      <c r="B67" s="42"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
+      <c r="B68" s="30">
         <f>B69</f>
         <v>42868</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="48">
+      <c r="A69" s="35"/>
+      <c r="B69" s="36">
         <f>B64+1</f>
         <v>42868</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="38"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="50"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
+      <c r="B72" s="42"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
+      <c r="B73" s="30">
         <f>B74</f>
         <v>42869</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="48">
+      <c r="A74" s="35"/>
+      <c r="B74" s="36">
         <f>B69+1</f>
         <v>42869</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1933,15 +1943,8 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -121,7 +121,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化产品规划和需求研讨1</t>
+    <t>无纸化产品规划和需求研讨11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -596,9 +596,6 @@
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -606,9 +603,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -640,23 +634,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,13 +656,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="18" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -705,6 +676,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -984,7 +984,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,938 +999,931 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <f>C3</f>
         <v>42856</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>42856</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
         <v>18</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <v>5</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="23">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30">
+      <c r="B6" s="23">
         <f>B7</f>
         <v>42856</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="34" t="str">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="27">
         <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
         <v>42856</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="27">
         <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
         <v>42857</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="27">
         <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
         <v>42858</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="27">
         <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
         <v>42859</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="27">
         <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
         <v>42860</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="27">
         <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
         <v>42861</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36">
+      <c r="A7" s="28"/>
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42856</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="27">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="27">
         <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
         <v>42863</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="27">
         <f t="shared" si="0"/>
         <v>42864</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
         <v>42865</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="27">
         <f t="shared" si="0"/>
         <v>42866</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="27">
         <f t="shared" si="0"/>
         <v>42867</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="27">
         <f t="shared" si="0"/>
         <v>42868</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="27">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
         <v>42869</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="27">
         <f t="shared" si="0"/>
         <v>42871</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="27">
         <f t="shared" si="0"/>
         <v>42872</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="27">
         <f t="shared" si="0"/>
         <v>42873</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="27">
         <f t="shared" si="0"/>
         <v>42874</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="27">
         <f t="shared" si="0"/>
         <v>42875</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="34">
+      <c r="G9" s="27">
         <f t="shared" si="1"/>
         <v>42876</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="27">
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="27">
         <f t="shared" si="0"/>
         <v>42878</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="27">
         <f t="shared" si="0"/>
         <v>42879</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="27">
         <f t="shared" si="0"/>
         <v>42880</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="27">
         <f t="shared" si="0"/>
         <v>42881</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="27">
         <f t="shared" si="0"/>
         <v>42882</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="G10" s="34">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
         <f t="shared" si="1"/>
         <v>42883</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="27">
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="27">
         <f t="shared" si="0"/>
         <v>42885</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="27">
         <f t="shared" si="0"/>
         <v>42886</v>
       </c>
-      <c r="K10" s="34" t="str">
+      <c r="K10" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="34" t="str">
+      <c r="L10" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="34" t="str">
+      <c r="M10" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
         <f>B12</f>
         <v>42857</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="G11" s="34" t="str">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="34" t="str">
+      <c r="H11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="34" t="str">
+      <c r="I11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="34" t="str">
+      <c r="J11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="34" t="str">
+      <c r="K11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="34" t="str">
+      <c r="L11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="34" t="str">
+      <c r="M11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42857</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="44"/>
-      <c r="G13" s="45" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="35"/>
+      <c r="G13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="G14" s="45" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="G14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="G15" s="45" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="30">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
         <f>B17</f>
         <v>42858</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36">
+      <c r="A17" s="28"/>
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42858</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="44"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="35"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="30">
+      <c r="B21" s="23">
         <f>B22</f>
         <v>42859</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36">
+      <c r="A22" s="28"/>
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42859</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="44"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
+      <c r="B25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30">
+      <c r="B26" s="23">
         <f>B27</f>
         <v>42860</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36">
+      <c r="A27" s="28"/>
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42860</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="44"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30">
+      <c r="B31" s="23">
         <f>B32</f>
         <v>42861</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36">
+      <c r="A32" s="28"/>
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42861</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="44"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="42"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="30">
+      <c r="B36" s="23">
         <f>B37</f>
         <v>42862</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36">
+      <c r="A37" s="28"/>
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42862</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="44"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="42"/>
+      <c r="B40" s="33"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <f>C3+7</f>
         <v>42863</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17">
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
         <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="30">
+      <c r="B43" s="23">
         <f>B44</f>
         <v>42863</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36">
+      <c r="A44" s="28"/>
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="52"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="30">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
         <f>B49</f>
         <v>42864</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36">
+      <c r="A49" s="28"/>
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="50"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
-      <c r="B53" s="30">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
         <f>B54</f>
         <v>42865</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36">
+      <c r="A54" s="28"/>
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="42"/>
+      <c r="B57" s="33"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="30">
+      <c r="B58" s="23">
         <f>B59</f>
         <v>42866</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36">
+      <c r="A59" s="28"/>
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
+      <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="30">
+      <c r="B63" s="23">
         <f>B64</f>
         <v>42867</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36">
+      <c r="A64" s="28"/>
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="42"/>
+      <c r="B67" s="33"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="30">
+      <c r="B68" s="23">
         <f>B69</f>
         <v>42868</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
-      <c r="B69" s="36">
+      <c r="A69" s="28"/>
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42868</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="50"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="42"/>
+      <c r="B72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="30">
+      <c r="B73" s="23">
         <f>B74</f>
         <v>42869</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36">
+      <c r="A74" s="28"/>
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42869</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1943,6 +1936,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -89,39 +89,71 @@
     <t>• Enter the Start Date for the week in cell C4</t>
   </si>
   <si>
-    <t>电子发票开票、查询平台可行性分析</t>
+    <t>劳动节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>会议管理系统建设方案</t>
+    <t>产品学习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化产品规划和需求研讨</t>
+    <t>郑州银行沙县小吃项目应用无纸化上线支持</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华融金交中心现场实施</t>
+    <t>产品培训</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化专利研讨</t>
+    <t>产品培训</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈尔滨消费金融无纸化交流</t>
+    <t>无纸化方案培训</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈尔滨消费金融无纸化交流</t>
+    <t>无纸化方案培训</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈尔滨消费金融无纸化交流</t>
+    <t>部署正式环境主服务器前置与无纸化服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化产品规划和需求研讨11</t>
+    <t>协调研发人员远程支持上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调研发人员远程支持上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与研发人员现场调试前置服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与研发人员现场调试前置服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调研发远程支持手写控件调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通手写控件需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通esb调整方案需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通esb调整方案需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通esb调整方案需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -538,17 +570,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="hair">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
@@ -631,7 +652,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,7 +664,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,7 +684,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -675,7 +695,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,7 +711,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -702,9 +721,11 @@
     <xf numFmtId="179" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -984,7 +1005,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,11 +1020,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1012,14 +1033,14 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1066,10 +1087,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
@@ -1080,16 +1101,16 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
@@ -1168,7 +1189,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
-      <c r="B7" s="45">
+      <c r="B7" s="43">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1178,9 +1199,7 @@
       <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="E7" s="34"/>
       <c r="G7" s="27">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -1214,16 +1233,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
       <c r="G8" s="27">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
         <v>42869</v>
@@ -1256,7 +1269,7 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -1365,19 +1378,17 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <f>B7+1</f>
         <v>42857</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="34"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1389,11 +1400,15 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="35"/>
-      <c r="G13" s="36" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="4"/>
@@ -1406,11 +1421,11 @@
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="36" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="4"/>
@@ -1424,7 +1439,7 @@
     </row>
     <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33"/>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="4"/>
@@ -1446,38 +1461,36 @@
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
-      <c r="B17" s="45">
+      <c r="B17" s="43">
         <f>B12+1</f>
         <v>42858</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="35"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
@@ -1496,30 +1509,28 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <f>B17+1</f>
         <v>42859</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="35"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
@@ -1538,30 +1549,32 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
-      <c r="B27" s="45">
+      <c r="B27" s="43">
         <f>B22+1</f>
         <v>42860</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="32"/>
@@ -1580,24 +1593,32 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <f>B27+1</f>
         <v>42861</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
@@ -1616,24 +1637,36 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
-      <c r="B37" s="45">
+      <c r="B37" s="43">
         <f>B32+1</f>
         <v>42862</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="35"/>
+      <c r="C37" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
@@ -1642,7 +1675,7 @@
       <c r="B40" s="33"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="13" t="s">
         <v>5</v>
       </c>
@@ -1668,30 +1701,36 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
-      <c r="B44" s="45">
+      <c r="B44" s="43">
         <f>B37+1</f>
         <v>42863</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
       <c r="E46" s="32"/>
@@ -1715,24 +1754,36 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
-      <c r="B49" s="45">
+      <c r="B49" s="43">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="C49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="41"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="30"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
@@ -1756,26 +1807,38 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="C54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="42"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>36</v>
+      </c>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,24 +1855,32 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28"/>
-      <c r="B59" s="45">
+      <c r="B59" s="43">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="C59" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="D60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="42"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="30"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32"/>
@@ -1828,24 +1899,32 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28"/>
-      <c r="B64" s="45">
+      <c r="B64" s="43">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="C64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="30"/>
       <c r="D66" s="31"/>
       <c r="E66" s="32"/>
@@ -1864,24 +1943,24 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
-      <c r="B69" s="45">
+      <c r="B69" s="43">
         <f>B64+1</f>
         <v>42868</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="30"/>
       <c r="D71" s="31"/>
       <c r="E71" s="32"/>
@@ -1900,24 +1979,24 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28"/>
-      <c r="B74" s="45">
+      <c r="B74" s="43">
         <f>B69+1</f>
         <v>42869</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="30"/>
       <c r="D76" s="31"/>
       <c r="E76" s="32"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>沟通esb调整方案需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -695,6 +699,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,8 +730,6 @@
     <xf numFmtId="179" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,7 +1009,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,11 +1024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1033,14 +1037,14 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1087,10 +1091,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
@@ -1101,16 +1105,16 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
@@ -1189,7 +1193,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
-      <c r="B7" s="43">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1199,7 +1203,9 @@
       <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" s="27">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -1233,7 +1239,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="34"/>
@@ -1269,7 +1275,7 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -1378,7 +1384,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -1400,7 +1406,7 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
@@ -1421,7 +1427,7 @@
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="32"/>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
-      <c r="B17" s="43">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="34"/>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -1523,14 +1529,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
-      <c r="B27" s="43">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -1563,7 +1569,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="29" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="32"/>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -1607,18 +1613,18 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
-      <c r="B37" s="43">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -1653,11 +1659,11 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="34" t="s">
@@ -1666,7 +1672,7 @@
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -1717,11 +1723,11 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="42" t="s">
@@ -1730,7 +1736,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
       <c r="E46" s="32"/>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
-      <c r="B49" s="43">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -1770,11 +1776,11 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E50" s="42" t="s">
@@ -1783,7 +1789,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="30"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -1821,7 +1827,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="29" t="s">
         <v>33</v>
       </c>
@@ -1832,11 +1838,11 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="32"/>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28"/>
-      <c r="B59" s="43">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
@@ -1880,7 +1886,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="30"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32"/>
@@ -1899,7 +1905,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28"/>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="29" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="30"/>
       <c r="D66" s="31"/>
       <c r="E66" s="32"/>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
-      <c r="B69" s="43">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -1953,14 +1959,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="38"/>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="30"/>
       <c r="D71" s="31"/>
       <c r="E71" s="32"/>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28"/>
-      <c r="B74" s="43">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -1989,20 +1995,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="38"/>
       <c r="D75" s="39"/>
       <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="30"/>
       <c r="D76" s="31"/>
       <c r="E76" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2015,13 +2028,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>沟通esb调整方案需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1005,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,9 +1199,7 @@
       <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>38</v>
-      </c>
+      <c r="E7" s="34"/>
       <c r="G7" s="27">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2009,13 +2003,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2028,6 +2015,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>沟通esb调整方案需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>what</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1009,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1203,9 @@
       <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" s="27">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2003,6 +2009,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2015,13 +2028,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week 18-19" sheetId="8" r:id="rId1"/>
+    <sheet name="Week 20-21" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 20-21'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -158,6 +160,54 @@
   </si>
   <si>
     <t>what</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加与郑州银行柜面无纸化业务交流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成socket版接口文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成郑行鼎融易上线所需复合签章接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑行项目进展沟通，开发提测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加PDF文件传输是否通过ESB方案沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加郑州银行无纸化方案交流会及答疑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论并梳理郑州银行应用无纸化业务流程并形成文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往郑州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成socket版接口文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理socket版接口文档和标准版接口文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉linux系统下部署操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与开发沟通郑行项目开发进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2009,13 +2059,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2028,6 +2071,974 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -208,6 +208,26 @@
   </si>
   <si>
     <t>与开发沟通郑行项目开发进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认沙县小吃业务流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通ESB与直连方式的利弊与影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调通ESB方式的签章接口调用，配合ESB与直连两种方式的压测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与苏旭沟通压测结果，建议直连方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合推动行方尽快确定方案，确保系统平稳上线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2059,6 +2079,977 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2087,965 +3078,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="49">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="51">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="G6" s="27" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="27">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="27">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="27">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="27">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="27">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="27">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="45">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="27">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="27">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="27">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="27">
-        <f t="shared" si="0"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="27">
-        <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="0"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="0"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="27">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="27">
-        <f t="shared" si="0"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="27">
-        <f t="shared" si="0"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="0"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="45">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="45">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="45">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="45">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="45">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="45">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="23">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="45">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="23">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="45">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="45">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="45">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="45">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="45">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>配合推动行方尽快确定方案，确保系统平稳上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步计划到郑州银行现场支持，确定最终传输方案后做相应工作安排。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充本次实施方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2079,6 +2087,981 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -2107,975 +3090,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="49">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="51">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="G6" s="27" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="27">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="27">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="27">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="27">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="27">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="27">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="45">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="27">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="27">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="27">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="27">
-        <f t="shared" si="0"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="27">
-        <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="0"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="0"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="27">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="27">
-        <f t="shared" si="0"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="27">
-        <f t="shared" si="0"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="0"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="45">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="45">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="45">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="45">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="45">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="45">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="23">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="45">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="23">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="45">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="45">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="45">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="45">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="45">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -237,6 +237,9 @@
   <si>
     <t>补充本次实施方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外出）</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,6 +811,7 @@
     <xf numFmtId="179" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2087,6 +2091,991 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2115,979 +3104,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="49">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="51">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="G6" s="27" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="27">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="27">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="27">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="27">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="27">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="27">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="45">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="27">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="27">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="27">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="27">
-        <f t="shared" si="0"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="27">
-        <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="0"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="0"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="27">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="27">
-        <f t="shared" si="0"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="27">
-        <f t="shared" si="0"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="0"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="45">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="45">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="45">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="45">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="45">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="45">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="23">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="45">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="23">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="45">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="45">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="45">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="45">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="45">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -782,6 +782,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,7 +812,6 @@
     <xf numFmtId="179" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1106,11 +1106,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1119,14 +1119,14 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1173,10 +1173,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="50">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
@@ -1187,16 +1187,16 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="51">
+      <c r="G4" s="52">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="34"/>
@@ -1357,7 +1357,7 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -1466,7 +1466,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="46">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="32"/>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
-      <c r="B17" s="45">
+      <c r="B17" s="46">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="34"/>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
-      <c r="B22" s="45">
+      <c r="B22" s="46">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -1611,14 +1611,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
-      <c r="B27" s="45">
+      <c r="B27" s="46">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="29" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="32"/>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
-      <c r="B32" s="45">
+      <c r="B32" s="46">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="29" t="s">
         <v>29</v>
       </c>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
-      <c r="B37" s="45">
+      <c r="B37" s="46">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="29" t="s">
         <v>29</v>
       </c>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
-      <c r="B44" s="45">
+      <c r="B44" s="46">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="29" t="s">
         <v>31</v>
       </c>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
       <c r="E46" s="32"/>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
-      <c r="B49" s="45">
+      <c r="B49" s="46">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="29" t="s">
         <v>32</v>
       </c>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="30"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
-      <c r="B54" s="45">
+      <c r="B54" s="46">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="29" t="s">
         <v>33</v>
       </c>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="36" t="s">
         <v>35</v>
       </c>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28"/>
-      <c r="B59" s="45">
+      <c r="B59" s="46">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29" t="s">
         <v>34</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="30"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28"/>
-      <c r="B64" s="45">
+      <c r="B64" s="46">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="29" t="s">
         <v>35</v>
       </c>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="30"/>
       <c r="D66" s="31"/>
       <c r="E66" s="32"/>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
-      <c r="B69" s="45">
+      <c r="B69" s="46">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -2041,14 +2041,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="38"/>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="30"/>
       <c r="D71" s="31"/>
       <c r="E71" s="32"/>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28"/>
-      <c r="B74" s="45">
+      <c r="B74" s="46">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -2077,14 +2077,999 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="38"/>
       <c r="D75" s="39"/>
       <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="50">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="52">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="46">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="47"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="46">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="47"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="46">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="46">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="46">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="46">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="46">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="46">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="46">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="46">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="46">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="46">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="46">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="46">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="30"/>
       <c r="D76" s="31"/>
       <c r="E76" s="32"/>
@@ -2119,989 +3104,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="49">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="51">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="G6" s="27" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="27">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="27">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="27">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="27">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="27">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="27">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="45">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="27">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="27">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="27">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="27">
-        <f t="shared" si="0"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="27">
-        <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="0"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="0"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="27">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="27">
-        <f t="shared" si="0"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="27">
-        <f t="shared" si="0"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="0"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="45">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="45">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="45">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="45">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="45">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="45">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="23">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="45">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="23">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="45">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="45">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="45">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="45">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="45">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dailyreport\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 20-21'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -240,12 +240,31 @@
   </si>
   <si>
     <t>（外出）</t>
+  </si>
+  <si>
+    <t>初步计划到郑州银行现场支持</t>
+  </si>
+  <si>
+    <t>初步计划到郑州银行现场支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步计划到郑州银行现场支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步计划到郑州银行现场支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步计划到郑州银行现场支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2091,6 +2110,1019 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="50">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="52">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="46">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="47"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="46">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="47"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="46">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="46">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="46">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="46">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="46">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="46">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="46">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="46">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="46">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="46">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="46">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="46">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2119,989 +3151,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="50">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="52">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="G6" s="27" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="27">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="27">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="27">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="27">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="27">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="27">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="46">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="27">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="27">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="27">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="27">
-        <f t="shared" si="0"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="27">
-        <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="0"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="0"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="27">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="27">
-        <f t="shared" si="0"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="27">
-        <f t="shared" si="0"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="0"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
-      <c r="C13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="G14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="46">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="46">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="46">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="46">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="46">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="46">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="23">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="46">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="23">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="46">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="46">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="46">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="46">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="46">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dailyreport\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 18-19" sheetId="8" r:id="rId1"/>
     <sheet name="Week 20-21" sheetId="10" r:id="rId2"/>
+    <sheet name="Week 22-23" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 22-23'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -231,10 +233,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初步计划到郑州银行现场支持，确定最终传输方案后做相应工作安排。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>补充本次实施方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,29 +240,101 @@
     <t>（外出）</t>
   </si>
   <si>
-    <t>初步计划到郑州银行现场支持</t>
-  </si>
-  <si>
-    <t>初步计划到郑州银行现场支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步计划到郑州银行现场支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步计划到郑州银行现场支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步计划到郑州银行现场支持</t>
+    <t>郑州银行现场支持，确定最终传输方案后做相应工作安排。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划周三通过功能测试周六通过性能测试出release版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与手机银行集成商沟通复合签章接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行现场支持，保证集成商接口测试顺利进行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步进行压测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户明确需求，用一个接口实现签章和加日期，并明确pdf附件可传空也可随时添加</t>
+  </si>
+  <si>
+    <t>根据开发提供的demo和前置进行部署调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与手机银行集成商沟通复合签章接口，协调提供新版手写控件、androiddemo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据release版本进行正式环境部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在正式环境搭建eclipse进行测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在正式环境搭建eclipse进行测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化demo代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合测试通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根机构无法修改编号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户行章采用长仿宋字体系统不支持。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动客户在生产环境建立数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限可以通过配置文件修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟到6月5日上线。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制直连改造实施方案和接口文档。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订直连改造实施方案和接口文档。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与柜面渠道沟通无纸化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备直连改造。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通解决iphone无法查看签章合同系pdf解码显示的问题，建议客户选用trussignpdf插件或转图片的方式提供查看。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2110,6 +2180,1037 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="50">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="52">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="27" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="27">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="27">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="27">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="27">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="46">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="47"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="46">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="47"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="46">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="46">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="46">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="46">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="23">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="46">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="46">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="46">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="46">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="46">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="46">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="46">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="46">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -2140,12 +3241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:D69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,7 +3287,7 @@
       </c>
       <c r="E2" s="8">
         <f>C3</f>
-        <v>42870</v>
+        <v>42884</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>3</v>
@@ -2208,12 +3309,12 @@
         <v>5</v>
       </c>
       <c r="C3" s="14">
-        <v>42870</v>
+        <v>42884</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="5"/>
@@ -2291,7 +3392,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23">
         <f>B7</f>
-        <v>42870</v>
+        <v>42884</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
@@ -2331,17 +3432,11 @@
       <c r="A7" s="28"/>
       <c r="B7" s="46">
         <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="34"/>
       <c r="G7" s="27">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2376,9 +3471,7 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="34"/>
       <c r="G8" s="27">
@@ -2485,11 +3578,9 @@
     <row r="11" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23">
         <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>58</v>
-      </c>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="45"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="G11" s="27" t="str">
@@ -2526,17 +3617,11 @@
     <row r="12" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="46">
         <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="34"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2549,15 +3634,9 @@
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="46"/>
-      <c r="C13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
-      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="34"/>
       <c r="G13" s="35" t="s">
         <v>18</v>
       </c>
@@ -2605,10 +3684,10 @@
       <c r="A16" s="28"/>
       <c r="B16" s="23">
         <f>B17</f>
-        <v>42872</v>
+        <v>42886</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
@@ -2621,26 +3700,22 @@
       <c r="A17" s="28"/>
       <c r="B17" s="46">
         <f>B12+1</f>
-        <v>42872</v>
+        <v>42886</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="34"/>
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="34"/>
       <c r="G18" s="37"/>
     </row>
@@ -2657,10 +3732,10 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23">
         <f>B22</f>
-        <v>42873</v>
+        <v>42887</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
@@ -2669,24 +3744,30 @@
       <c r="A22" s="28"/>
       <c r="B22" s="46">
         <f>B17+1</f>
-        <v>42873</v>
+        <v>42887</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="46"/>
       <c r="C23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
@@ -2701,10 +3782,10 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="23">
         <f>B27</f>
-        <v>42874</v>
+        <v>42888</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="26"/>
@@ -2713,21 +3794,25 @@
       <c r="A27" s="28"/>
       <c r="B27" s="46">
         <f>B22+1</f>
-        <v>42874</v>
+        <v>42888</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="46"/>
       <c r="C28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2743,9 +3828,9 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="23">
         <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="24"/>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="45"/>
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
     </row>
@@ -2753,14 +3838,10 @@
       <c r="A32" s="28"/>
       <c r="B32" s="46">
         <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>61</v>
-      </c>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2783,9 +3864,9 @@
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="23">
         <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="24"/>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="45"/>
       <c r="D36" s="25"/>
       <c r="E36" s="26"/>
     </row>
@@ -2793,14 +3874,10 @@
       <c r="A37" s="28"/>
       <c r="B37" s="46">
         <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>62</v>
-      </c>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2827,22 +3904,22 @@
       </c>
       <c r="C41" s="14">
         <f>C3+7</f>
-        <v>42877</v>
+        <v>42891</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15">
         <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="23">
         <f>B44</f>
-        <v>42877</v>
+        <v>42891</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="26"/>
@@ -2851,10 +3928,10 @@
       <c r="A44" s="28"/>
       <c r="B44" s="46">
         <f>B37+1</f>
-        <v>42877</v>
+        <v>42891</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="42"/>
@@ -2863,7 +3940,7 @@
       <c r="A45" s="28"/>
       <c r="B45" s="46"/>
       <c r="C45" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="42"/>
@@ -2886,9 +3963,11 @@
       <c r="A48" s="28"/>
       <c r="B48" s="23">
         <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="24"/>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D48" s="25"/>
       <c r="E48" s="26"/>
     </row>
@@ -2896,27 +3975,31 @@
       <c r="A49" s="28"/>
       <c r="B49" s="46">
         <f>B44+1</f>
-        <v>42878</v>
+        <v>42892</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="42"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="29"/>
+      <c r="C50" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="D50" s="43"/>
       <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="47"/>
-      <c r="C51" s="30"/>
+      <c r="C51" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
     </row>
@@ -2931,9 +4014,11 @@
       <c r="A53" s="28"/>
       <c r="B53" s="23">
         <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="24"/>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D53" s="25"/>
       <c r="E53" s="26"/>
     </row>
@@ -2941,27 +4026,29 @@
       <c r="A54" s="28"/>
       <c r="B54" s="46">
         <f>B49+1</f>
-        <v>42879</v>
+        <v>42893</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D54" s="29"/>
       <c r="E54" s="42"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
       <c r="B55" s="46"/>
-      <c r="C55" s="29"/>
+      <c r="C55" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="D55" s="29"/>
       <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="47"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="D56" s="44"/>
       <c r="E56" s="32"/>
     </row>
@@ -2971,9 +4058,11 @@
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="23">
         <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="24"/>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D58" s="25"/>
       <c r="E58" s="26"/>
     </row>
@@ -2981,14 +4070,12 @@
       <c r="A59" s="28"/>
       <c r="B59" s="46">
         <f>B54+1</f>
-        <v>42880</v>
+        <v>42894</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D59" s="29"/>
       <c r="E59" s="42"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,7 +4088,7 @@
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
       <c r="B61" s="47"/>
-      <c r="C61" s="30"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32"/>
     </row>
@@ -3011,9 +4098,11 @@
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="23">
         <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="24"/>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D63" s="25"/>
       <c r="E63" s="26"/>
     </row>
@@ -3021,27 +4110,29 @@
       <c r="A64" s="28"/>
       <c r="B64" s="46">
         <f>B59+1</f>
-        <v>42881</v>
+        <v>42895</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D64" s="29"/>
       <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
       <c r="B65" s="46"/>
-      <c r="C65" s="29"/>
+      <c r="C65" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="D65" s="29"/>
       <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="47"/>
-      <c r="C66" s="30"/>
+      <c r="C66" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="D66" s="31"/>
       <c r="E66" s="32"/>
     </row>
@@ -3051,9 +4142,11 @@
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="23">
         <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="24"/>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D68" s="25"/>
       <c r="E68" s="26"/>
     </row>
@@ -3061,27 +4154,29 @@
       <c r="A69" s="28"/>
       <c r="B69" s="46">
         <f>B64+1</f>
-        <v>42882</v>
+        <v>42896</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D69" s="29"/>
       <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
       <c r="B70" s="46"/>
-      <c r="C70" s="38"/>
+      <c r="C70" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
       <c r="B71" s="47"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="D71" s="31"/>
       <c r="E71" s="32"/>
     </row>
@@ -3091,7 +4186,7 @@
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="23">
         <f>B74</f>
-        <v>42883</v>
+        <v>42897</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="25"/>
@@ -3101,7 +4196,7 @@
       <c r="A74" s="28"/>
       <c r="B74" s="46">
         <f>B69+1</f>
-        <v>42883</v>
+        <v>42897</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="39"/>
@@ -3123,6 +4218,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3130,18 +4237,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dailyreport\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2180,6 +2180,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2192,13 +2199,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3211,13 +3211,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3230,6 +3223,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3245,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4218,6 +4218,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -4225,18 +4237,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -2180,13 +2180,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2199,6 +2192,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3211,6 +3211,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3223,13 +3230,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3245,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4218,6 +4218,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4230,13 +4237,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -328,6 +328,38 @@
   </si>
   <si>
     <t>沟通解决iphone无法查看签章合同系pdf解码显示的问题，建议客户选用trussignpdf插件或转图片的方式提供查看。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决印章字体问题，定为仿宋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持沙县小吃项目上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙县小吃项目上线后沟通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加验章接口和demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订接口文档和demo程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸融渠道需求初步沟通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -388,6 +420,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1179,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2214,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3245,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3931,7 +3964,7 @@
         <v>42891</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="42"/>
@@ -3940,7 +3973,7 @@
       <c r="A45" s="28"/>
       <c r="B45" s="46"/>
       <c r="C45" s="29" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="42"/>
@@ -3948,7 +3981,9 @@
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="B46" s="47"/>
-      <c r="C46" s="30"/>
+      <c r="C46" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="D46" s="31"/>
       <c r="E46" s="32"/>
     </row>
@@ -3978,18 +4013,16 @@
         <v>42892</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="42" t="s">
-        <v>63</v>
-      </c>
+      <c r="E49" s="42"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="46"/>
       <c r="C50" s="29" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="42"/>
@@ -3998,7 +4031,7 @@
       <c r="A51" s="28"/>
       <c r="B51" s="47"/>
       <c r="C51" s="36" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
@@ -4016,9 +4049,7 @@
         <f>B54</f>
         <v>42893</v>
       </c>
-      <c r="C53" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="C53" s="45"/>
       <c r="D53" s="25"/>
       <c r="E53" s="26"/>
     </row>
@@ -4029,7 +4060,7 @@
         <v>42893</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="42"/>
@@ -4038,7 +4069,7 @@
       <c r="A55" s="28"/>
       <c r="B55" s="46"/>
       <c r="C55" s="29" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="40"/>
@@ -4046,9 +4077,7 @@
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="47"/>
-      <c r="C56" s="36" t="s">
-        <v>65</v>
-      </c>
+      <c r="C56" s="36"/>
       <c r="D56" s="44"/>
       <c r="E56" s="32"/>
     </row>
@@ -4060,9 +4089,7 @@
         <f>B59</f>
         <v>42894</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="C58" s="45"/>
       <c r="D58" s="25"/>
       <c r="E58" s="26"/>
     </row>
@@ -4073,7 +4100,7 @@
         <v>42894</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="42"/>
@@ -4100,9 +4127,7 @@
         <f>B64</f>
         <v>42895</v>
       </c>
-      <c r="C63" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="C63" s="45"/>
       <c r="D63" s="25"/>
       <c r="E63" s="26"/>
     </row>
@@ -4112,27 +4137,21 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>66</v>
-      </c>
+      <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
       <c r="B65" s="46"/>
-      <c r="C65" s="29" t="s">
-        <v>68</v>
-      </c>
+      <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="47"/>
-      <c r="C66" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="C66" s="36"/>
       <c r="D66" s="31"/>
       <c r="E66" s="32"/>
     </row>
@@ -4144,9 +4163,7 @@
         <f>B69</f>
         <v>42896</v>
       </c>
-      <c r="C68" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="C68" s="45"/>
       <c r="D68" s="25"/>
       <c r="E68" s="26"/>
     </row>
@@ -4156,27 +4173,21 @@
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>66</v>
-      </c>
+      <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
       <c r="B70" s="46"/>
-      <c r="C70" s="29" t="s">
-        <v>67</v>
-      </c>
+      <c r="C70" s="29"/>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
       <c r="B71" s="47"/>
-      <c r="C71" s="36" t="s">
-        <v>70</v>
-      </c>
+      <c r="C71" s="36"/>
       <c r="D71" s="31"/>
       <c r="E71" s="32"/>
     </row>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="96">
   <si>
     <t>分组</t>
   </si>
@@ -344,6 +344,19 @@
   <si>
     <t>郑州银行项目梳理
 无纸化产品深入学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行编制项目文档
+ 重庆农村商业银行柜面无纸化项目售前沟通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行柜面和资金监管业务无纸化沟通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行编制项目文档</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1044,6 +1057,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,21 +1079,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1474,7 +1487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1615,16 +1628,16 @@
         <v>90</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1782,16 +1795,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1800,6 +1803,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2113,6 +2126,345 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2146,13 +2498,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2174,7 +2526,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2190,83 +2542,83 @@
         <v>59</v>
       </c>
       <c r="B2" s="37">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
+        <v>42899</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
+        <v>42900</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
+        <v>42901</v>
       </c>
       <c r="I2" s="37"/>
       <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
+        <v>42902</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
+        <v>42903</v>
       </c>
       <c r="M2" s="37"/>
       <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
+        <v>42904</v>
       </c>
       <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2275,34 +2627,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2323,7 +2675,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2340,82 +2692,82 @@
       </c>
       <c r="B7" s="37">
         <f>B2+7</f>
-        <v>42912</v>
+        <v>42905</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
+        <v>42906</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
+        <v>42907</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
+        <v>42908</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
+        <v>42909</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
+        <v>42910</v>
       </c>
       <c r="M7" s="37"/>
       <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
+        <v>42911</v>
       </c>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2424,34 +2776,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2485,345 +2837,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="37">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
@@ -3138,6 +3151,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3146,16 +3169,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,32 +3192,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3213,8 +3226,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3282,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3289,7 +3302,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3320,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3338,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3345,7 +3358,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3363,7 +3376,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3394,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3401,7 +3414,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3419,7 +3432,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3457,7 +3470,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3477,7 +3490,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3495,7 +3508,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3513,7 +3526,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3533,7 +3546,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3551,7 +3564,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +3582,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3589,7 +3602,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3607,7 +3620,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3665,7 +3678,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3685,7 +3698,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3703,7 +3716,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3723,7 +3736,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3741,7 +3754,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3759,7 +3772,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3777,7 +3790,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3795,7 +3808,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3813,7 +3826,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3831,7 +3844,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3849,7 +3862,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3880,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3885,7 +3898,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3904,6 +3917,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3914,11 +3932,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,19 +12,20 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId1"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId2"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId3"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId4"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId5"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId1"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId2"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId3"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId4"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId5"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId6"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="99">
   <si>
     <t>分组</t>
   </si>
@@ -357,6 +358,18 @@
   </si>
   <si>
     <t>郑州银行编制项目文档</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行柜面无纸化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品会年中汇报</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,6 +1061,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,6 +1073,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1070,15 +1095,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1497,19 +1513,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1521,87 +1537,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="B2" s="38">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="37"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1616,28 +1632,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1646,19 +1662,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1670,87 +1686,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="37"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1795,6 +1811,350 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>27</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42920</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42921</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42922</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42923</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42924</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>28</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42926</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42927</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42928</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42929</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42930</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42931</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1808,11 +2168,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1836,13 +2191,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1860,47 +2215,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -1985,13 +2340,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2009,47 +2364,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -2126,345 +2481,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="37">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2504,7 +2520,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2514,19 +2530,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2538,87 +2554,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="B2" s="38">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="37"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2627,34 +2643,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2663,19 +2679,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2687,87 +2703,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="37"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2776,34 +2792,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2843,6 +2859,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2853,13 +3208,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2877,47 +3232,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -3002,13 +3357,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3026,47 +3381,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3151,16 +3506,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3169,6 +3514,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3176,7 +3531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3192,32 +3547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="46"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3226,8 +3581,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3282,7 +3637,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3302,7 +3657,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3320,7 +3675,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3693,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3358,7 +3713,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3376,7 +3731,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3394,7 +3749,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3414,7 +3769,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3432,7 +3787,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3470,7 +3825,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3490,7 +3845,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3508,7 +3863,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3526,7 +3881,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3546,7 +3901,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3919,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3582,7 +3937,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3602,7 +3957,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3620,7 +3975,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3678,7 +4033,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3698,7 +4053,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3716,7 +4071,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3736,7 +4091,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3754,7 +4109,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3772,7 +4127,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3790,7 +4145,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3808,7 +4163,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3826,7 +4181,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3844,7 +4199,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +4217,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3880,7 +4235,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +4253,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3917,11 +4272,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3932,6 +4282,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -361,15 +361,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>郑州银行柜面无纸化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>郑州银行项目梳理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>参加产品会年中汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行柜面无纸化（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1073,6 +1073,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1080,21 +1095,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,7 +1503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1632,28 +1632,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>97</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>98</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1811,16 +1811,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1829,6 +1819,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2142,6 +2142,684 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2175,13 +2853,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2203,7 +2881,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2219,83 +2897,83 @@
         <v>59</v>
       </c>
       <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
+        <v>42899</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
+        <v>42900</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
+        <v>42901</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
+        <v>42902</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
+        <v>42903</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
+        <v>42904</v>
       </c>
       <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2304,34 +2982,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2352,7 +3030,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2369,82 +3047,82 @@
       </c>
       <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42919</v>
+        <v>42905</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
+        <v>42906</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
+        <v>42907</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
+        <v>42908</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
+        <v>42909</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
+        <v>42910</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
+        <v>42911</v>
       </c>
       <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2453,373 +3131,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2853,345 +3192,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
@@ -3506,6 +3506,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3514,16 +3524,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3547,32 +3547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3581,8 +3581,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3657,7 +3657,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3713,7 +3713,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3769,7 +3769,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3845,7 +3845,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3901,7 +3901,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3957,7 +3957,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4053,7 +4053,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4091,7 +4091,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4272,6 +4272,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4282,11 +4287,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,20 +12,21 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId1"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId2"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId3"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId4"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId5"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId6"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId1"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId2"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId3"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId4"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId5"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId6"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId7"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="106">
   <si>
     <t>分组</t>
   </si>
@@ -370,6 +371,42 @@
   </si>
   <si>
     <t>郑州银行柜面无纸化（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署准备
+项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署准备
+搭伙科技保险行业无纸化解决方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署准备
+郑州银行实施方案增加柜面业务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署准备
+郑州银行实施方案增加柜面业务
+搭伙科技保险行业无纸化解决方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署
+郑州银行项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行无纸化测试环境部署（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行无纸化应用场景沟通
+接口讲解、demo调通
+部署文档、接口文档编制（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1101,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,6 +1113,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,15 +1135,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,6 +1543,345 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>29</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42934</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42935</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42936</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42937</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42938</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42945</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1513,13 +1892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1537,47 +1916,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
@@ -1662,13 +2041,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1686,47 +2065,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
@@ -1811,6 +2190,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1824,11 +2208,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1852,13 +2231,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1876,47 +2255,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -2001,13 +2380,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2025,47 +2404,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -2150,6 +2529,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2163,11 +2547,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2191,13 +2570,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2215,47 +2594,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -2340,13 +2719,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2364,47 +2743,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -2481,345 +2860,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2859,7 +2899,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2869,19 +2909,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2893,87 +2933,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="39">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2982,34 +3022,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3018,19 +3058,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3042,87 +3082,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3131,34 +3171,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3198,6 +3238,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3208,13 +3587,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3232,47 +3611,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -3357,13 +3736,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3381,47 +3760,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3506,16 +3885,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3524,6 +3893,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,7 +3910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3547,32 +3926,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3581,8 +3960,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3637,7 +4016,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3657,7 +4036,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +4054,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3693,7 +4072,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3713,7 +4092,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3731,7 +4110,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +4128,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3769,7 +4148,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3787,7 +4166,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3825,7 +4204,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3845,7 +4224,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3863,7 +4242,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3881,7 +4260,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3901,7 +4280,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3919,7 +4298,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +4316,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3957,7 +4336,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3975,7 +4354,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4033,7 +4412,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4053,7 +4432,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4071,7 +4450,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4091,7 +4470,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4109,7 +4488,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4127,7 +4506,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4145,7 +4524,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4163,7 +4542,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4181,7 +4560,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4199,7 +4578,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4596,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4235,7 +4614,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4253,7 +4632,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4272,11 +4651,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4287,6 +4661,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,21 +12,22 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId1"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId2"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId3"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId4"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId5"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId6"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId7"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId1"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId2"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId3"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId4"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId5"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId6"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId7"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId8"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="110">
   <si>
     <t>分组</t>
   </si>
@@ -407,6 +408,26 @@
     <t>吉林亿联银行无纸化应用场景沟通
 接口讲解、demo调通
 部署文档、接口文档编制（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署准备
+郑州银行项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行无纸化正式环境部署（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行正式环境部署准备
+威海商业银行集成报错定位和解决</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+编制亿联银行实施方案
+编制投标文件</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1125,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1137,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,21 +1159,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1566,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1553,19 +1577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1577,87 +1601,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="40">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1666,34 +1690,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1702,19 +1726,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1726,87 +1750,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1815,34 +1839,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1882,7 +1906,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1892,19 +1916,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1916,87 +1940,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="40">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2011,28 +2035,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2041,19 +2065,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2065,87 +2089,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2154,34 +2178,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2190,11 +2214,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2208,6 +2227,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,6 +2240,345 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="40">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2231,13 +2594,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2255,47 +2618,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -2380,13 +2743,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2404,47 +2767,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -2529,11 +2892,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2547,6 +2905,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2554,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2570,13 +2933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2594,47 +2957,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -2719,13 +3082,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2743,47 +3106,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -2860,345 +3223,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3238,7 +3262,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3248,19 +3272,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3272,87 +3296,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="40">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3361,34 +3385,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3397,19 +3421,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3421,87 +3445,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3510,34 +3534,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3577,6 +3601,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="40">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3587,13 +3950,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3611,47 +3974,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -3736,13 +4099,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3760,47 +4123,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3885,6 +4248,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3893,16 +4266,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3926,32 +4289,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3960,8 +4323,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4016,7 +4379,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4036,7 +4399,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4054,7 +4417,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4435,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4092,7 +4455,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4110,7 +4473,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4128,7 +4491,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4148,7 +4511,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4166,7 +4529,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +4567,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4224,7 +4587,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4242,7 +4605,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4260,7 +4623,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4280,7 +4643,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4298,7 +4661,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4316,7 +4679,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4336,7 +4699,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4354,7 +4717,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4412,7 +4775,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4432,7 +4795,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4450,7 +4813,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4470,7 +4833,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4488,7 +4851,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4506,7 +4869,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4524,7 +4887,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4542,7 +4905,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4560,7 +4923,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4578,7 +4941,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4596,7 +4959,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4614,7 +4977,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4632,7 +4995,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4651,6 +5014,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4661,11 +5029,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,22 +12,23 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId1"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId2"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId3"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId4"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId5"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId6"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId7"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId8"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId1"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId2"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId3"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId4"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId5"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId6"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId7"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId8"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId9"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="117">
   <si>
     <t>分组</t>
   </si>
@@ -428,6 +429,39 @@
     <t>项目梳理
 编制亿联银行实施方案
 编制投标文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东农信社投标文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东农信社投标文件
+郑州银行资金监管集成问题沟通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行服务器证书问题沟通
+包商银行投标文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行投标文件</t>
+  </si>
+  <si>
+    <t>吉林亿联银行集成沟通
+郑州银行集成沟通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行集成现场
+郑州银行集成远程支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林亿联银行集成现场
+郑州银行集成远程支持
+行业研究</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1162,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,6 +1174,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1150,15 +1196,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1566,8 +1603,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1577,19 +1614,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1601,87 +1638,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="41">
+        <f>DATE(2017,7,31)</f>
+        <v>42947</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42948</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42949</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42950</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42951</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42952</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42953</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1690,34 +1727,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1726,19 +1763,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1750,87 +1787,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42954</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42955</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42956</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42957</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42958</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42959</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42960</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1839,34 +1876,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1900,13 +1937,776 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="45"/>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1">
+      <c r="A17" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="A25" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1">
+      <c r="A27" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
+      <c r="A30" s="50"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1">
+      <c r="A34" s="50"/>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1">
+      <c r="A35" s="50"/>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1916,19 +2716,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1940,87 +2740,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="41">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2029,34 +2829,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2065,19 +2865,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2089,87 +2889,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2178,34 +2978,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2245,7 +3045,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2255,19 +3055,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2279,87 +3079,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="41">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2374,28 +3174,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2404,19 +3204,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2428,87 +3228,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2517,34 +3317,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2553,6 +3353,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2566,11 +3371,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,6 +3379,345 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2594,13 +3733,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2618,47 +3757,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -2743,13 +3882,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2767,47 +3906,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -2892,6 +4031,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2905,11 +4049,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,7 +4056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2933,13 +4072,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2957,47 +4096,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -3082,13 +4221,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3106,47 +4245,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -3223,345 +4362,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3601,7 +4401,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3611,19 +4411,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3635,87 +4435,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="41">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3724,34 +4524,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3760,19 +4560,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3784,87 +4584,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3873,34 +4673,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3940,6 +4740,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3950,13 +5089,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3974,47 +5113,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -4099,13 +5238,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4123,47 +5262,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -4248,16 +5387,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -4266,772 +5395,19 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-    </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A16"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,23 +12,24 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId1"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId2"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId3"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId4"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId5"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId6"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId7"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId8"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId9"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId1"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId2"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId3"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId4"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId5"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId6"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId7"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId8"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId9"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId10"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="123">
   <si>
     <t>分组</t>
   </si>
@@ -462,6 +463,34 @@
     <t>吉林亿联银行集成现场
 郑州银行集成远程支持
 行业研究</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北网新OA应用证书签章解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银三星二次澄清</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北网新OA应用证书签章解决方案
+郑行资金监管集成支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>周例会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北网新OA应用证书签章解决方案
+亿联银行加入IP白名单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施项目支持
+行业解决方案编制
+OA无纸化应用</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1166,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1604,7 +1636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1614,19 +1646,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1638,87 +1670,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,7,31)</f>
-        <v>42947</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="42">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
-        <v>42948</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>42955</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42949</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>42956</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42950</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>42957</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42951</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>42958</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42952</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>42959</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42953</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1727,31 +1759,31 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>113</v>
@@ -1763,19 +1795,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1787,87 +1819,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
-        <v>42954</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42955</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>42962</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42956</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>42963</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42957</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>42964</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42958</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>42965</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42959</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>42966</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42960</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1876,34 +1908,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1912,16 +1944,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1930,6 +1952,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,6 +1970,345 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -1953,32 +2324,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2358,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2414,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2063,7 +2434,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2452,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2099,7 +2470,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2119,7 +2490,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2508,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2526,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2175,7 +2546,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2564,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2231,7 +2602,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2251,7 +2622,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2269,7 +2640,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2287,7 +2658,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2307,7 +2678,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2696,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2343,7 +2714,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2363,7 +2734,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2752,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2439,7 +2810,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2459,7 +2830,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2477,7 +2848,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2497,7 +2868,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2515,7 +2886,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2533,7 +2904,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2551,7 +2922,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2569,7 +2940,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +2958,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2605,7 +2976,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2623,7 +2994,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2641,7 +3012,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +3030,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2706,6 +3077,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>31</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,7,31)</f>
+        <v>42947</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42948</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42949</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42950</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42951</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42952</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42953</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>32</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42954</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42955</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42956</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42957</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42958</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42959</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42960</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
@@ -2716,13 +3426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2740,47 +3450,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
@@ -2865,13 +3575,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2889,47 +3599,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3055,13 +3765,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3079,47 +3789,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -3204,13 +3914,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3228,47 +3938,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -3345,345 +4055,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3723,7 +4094,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3733,19 +4104,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3757,87 +4128,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="42">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3852,28 +4223,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3882,19 +4253,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3906,87 +4277,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4062,7 +4433,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4072,19 +4443,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4096,87 +4467,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="42">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4185,34 +4556,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4221,19 +4592,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4245,87 +4616,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4401,6 +4772,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4411,13 +5121,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4435,47 +5145,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -4560,13 +5270,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4584,47 +5294,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +5444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4750,13 +5460,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4774,47 +5484,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4899,13 +5609,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4923,47 +5633,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -5071,343 +5781,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,24 +12,25 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 32-33" sheetId="15" r:id="rId1"/>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId2"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId3"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId4"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId5"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId6"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId7"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId8"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId9"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId10"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId11"/>
+    <sheet name="Week 33-34" sheetId="16" r:id="rId1"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId2"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId3"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId4"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId5"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId6"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId7"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId8"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId9"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId10"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId11"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="127">
   <si>
     <t>分组</t>
   </si>
@@ -491,6 +492,25 @@
     <t>实施项目支持
 行业解决方案编制
 OA无纸化应用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行移动OA建设方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行移动OA建设方案
+亿联银行项目沟通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行移动OA建设方案
+威商行无纸化上线（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行无纸化上线（外出）
+行业解决方案编制</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,6 +1186,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1646,19 +1669,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1670,87 +1693,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="43">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1759,34 +1782,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1795,19 +1818,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1819,87 +1842,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+        <v>42968</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+        <v>42969</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+        <v>42970</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+        <v>42971</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+        <v>42972</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+        <v>42973</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1908,34 +1931,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1944,11 +1967,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1962,6 +1980,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,6 +1993,345 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1985,13 +2347,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2009,47 +2371,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2134,13 +2496,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2158,47 +2520,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2308,7 +2670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2324,32 +2686,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="51"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2358,8 +2720,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2776,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2434,7 +2796,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2814,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2832,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2490,7 +2852,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2508,7 +2870,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2526,7 +2888,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2546,7 +2908,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2926,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2964,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2622,7 +2984,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2640,7 +3002,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2658,7 +3020,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2678,7 +3040,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +3058,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2714,7 +3076,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2734,7 +3096,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +3114,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2810,7 +3172,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2830,7 +3192,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2848,7 +3210,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2868,7 +3230,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2886,7 +3248,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2904,7 +3266,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2922,7 +3284,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2940,7 +3302,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2958,7 +3320,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2976,7 +3338,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2994,7 +3356,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3012,7 +3374,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3030,7 +3392,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3077,6 +3439,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3087,13 +3788,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3111,47 +3812,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,7,31)</f>
         <v>42947</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42948</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42949</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42950</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42951</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42952</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42953</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
@@ -3236,13 +3937,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3260,47 +3961,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42954</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42955</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42956</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42957</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42958</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42959</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42960</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="40" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +4111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3426,13 +4127,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3450,47 +4151,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
@@ -3575,13 +4276,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3599,47 +4300,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +4450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3765,13 +4466,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3789,47 +4490,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -3914,13 +4615,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3938,47 +4639,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -4055,345 +4756,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4433,7 +4795,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4443,19 +4805,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4467,87 +4829,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="43">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4562,28 +4924,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4592,19 +4954,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4616,87 +4978,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4772,7 +5134,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4782,19 +5144,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4806,87 +5168,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="43">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4895,34 +5257,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4931,19 +5293,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4955,87 +5317,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5111,6 +5473,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5121,13 +5822,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5145,47 +5846,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -5270,13 +5971,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5294,47 +5995,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -5442,343 +6143,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,25 +12,26 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 33-34" sheetId="16" r:id="rId1"/>
-    <sheet name="Week 32-33" sheetId="15" r:id="rId2"/>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId3"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId4"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId5"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId6"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId7"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId8"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId9"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId10"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId11"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="Week 34-35" sheetId="17" r:id="rId1"/>
+    <sheet name="Week 33-34" sheetId="16" r:id="rId2"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId3"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId4"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId5"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId6"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId7"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId8"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId9"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId10"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId11"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId12"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="141">
   <si>
     <t>分组</t>
   </si>
@@ -511,6 +512,67 @@
   <si>
     <t>威商行无纸化上线（外出）
 行业解决方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>与行方业务、集成商、科技部负责人会议沟通本次上线集成的业务渠道、应用场景、无纸化解决方案、目标及要求。（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服务器部署was中间件和db2数据库（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服务器部署was中间件和db2数据库
+沟通郑行无纸化签章问题（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服务器部署was中间件和db2数据库
+沟通上线问题，由于服务器不能连接外网，方案采用云证通+无纸化，上线流程暂不发起。（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服务器部署was中间件和db2数据库（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服务器部署was中间件和db2数据库成功（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据测试服务器部署was中间件和db2数据库的问题梳理最优部署流程（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制部署was中间件和db2数据库手册（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制部署was中间件和db2数据库手册
+准备项目文档（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产服务器部署was中间件和db2数据库（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产服务器部署was中间件和db2数据库测试通过（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制项目文档（外出）
+上线前准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制项目文档（外出）
+配合上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,6 +1248,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1658,8 +1723,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" activeCellId="1" sqref="J9 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1669,19 +1734,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1693,87 +1758,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,8,14)</f>
-        <v>42961</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="44">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42962</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42963</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42964</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42965</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42966</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42967</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1782,34 +1847,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1818,19 +1883,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1842,87 +1907,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42973</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42974</v>
-      </c>
-      <c r="O7" s="43"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1931,34 +1996,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1998,6 +2063,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2008,13 +2412,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2032,47 +2436,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -2157,13 +2561,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2181,47 +2585,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2347,13 +2751,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2371,47 +2775,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2496,13 +2900,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2520,47 +2924,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2670,7 +3074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2686,32 +3090,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="52"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2720,8 +3124,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +3180,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2796,7 +3200,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2814,7 +3218,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2832,7 +3236,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2852,7 +3256,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2870,7 +3274,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2888,7 +3292,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2908,7 +3312,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +3330,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2964,7 +3368,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2984,7 +3388,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3002,7 +3406,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3020,7 +3424,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3040,7 +3444,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3462,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3076,7 +3480,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3096,7 +3500,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3114,7 +3518,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3172,7 +3576,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3192,7 +3596,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3210,7 +3614,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3230,7 +3634,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3248,7 +3652,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3266,7 +3670,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3284,7 +3688,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="49"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3302,7 +3706,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3320,7 +3724,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="49"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3338,7 +3742,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3760,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3374,7 +3778,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="49"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3796,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="49"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3449,19 +3853,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3473,87 +3877,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="44">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3562,34 +3966,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3598,19 +4002,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3622,47 +4026,386 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42968</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42969</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42970</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42971</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42972</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42973</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42961</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42962</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42963</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42964</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42965</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42966</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42967</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
@@ -3772,7 +4515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3788,13 +4531,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3812,47 +4555,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,7,31)</f>
         <v>42947</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42948</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42949</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42950</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42951</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42952</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42953</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
@@ -3937,13 +4680,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3961,47 +4704,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42954</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42955</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42956</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42957</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42958</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42959</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42960</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="40" t="s">
         <v>2</v>
       </c>
@@ -4111,7 +4854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4127,13 +4870,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4151,47 +4894,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
@@ -4276,13 +5019,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4300,47 +5043,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4466,13 +5209,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4490,47 +5233,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -4615,13 +5358,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4639,47 +5382,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -4756,345 +5499,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5134,7 +5538,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5144,19 +5548,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5168,87 +5572,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="44">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5263,28 +5667,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5293,19 +5697,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5317,87 +5721,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="43"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5473,7 +5877,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5483,19 +5887,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5507,87 +5911,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="44">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5596,34 +6000,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5632,19 +6036,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5656,87 +6060,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="43"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5812,7 +6216,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5822,19 +6226,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5846,87 +6250,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="44">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5935,34 +6339,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5971,19 +6375,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5995,87 +6399,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="43"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6084,34 +6488,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -6120,11 +6524,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -6138,6 +6537,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,26 +12,27 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 34-35" sheetId="17" r:id="rId1"/>
-    <sheet name="Week 33-34" sheetId="16" r:id="rId2"/>
-    <sheet name="Week 32-33" sheetId="15" r:id="rId3"/>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId4"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId5"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId6"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId7"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId8"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId9"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId10"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId11"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId12"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId13"/>
+    <sheet name="Week 35-36" sheetId="18" r:id="rId1"/>
+    <sheet name="Week 34-35" sheetId="17" r:id="rId2"/>
+    <sheet name="Week 33-34" sheetId="16" r:id="rId3"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId4"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId5"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId6"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId7"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId8"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId9"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId10"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId11"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId12"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId13"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="153">
   <si>
     <t>分组</t>
   </si>
@@ -573,6 +574,58 @@
   <si>
     <t>编制项目文档（外出）
 配合上线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行生产服务器部署was中间件和db2数据库（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行生产服务器部署was中间件和db2数据库测试通过（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行沟通确认上线方案
+编制需求分析（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿联银行根据业务需求确认并提供相应解决方案（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行编制上线方案，回退方案，运维方案（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿联银行梳理全套综合解决方案邮件发送（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿联银行沟通业务需求
+威商行编制数据库设计（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行调整项目章程、项目计划书、需求分析（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行编制需求分析、概要设计、详细设计（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合威商行移动营销业务集成无纸化合成模板上线试运（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+业务深入学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控
+编制项目文档（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,6 +1338,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,6 +1350,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,15 +1372,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,7 +1780,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" activeCellId="1" sqref="J9 K9"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1734,19 +1790,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1758,87 +1814,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,8,28)</f>
+        <v>42975</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42976</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42977</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42978</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42979</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42980</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42981</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1847,34 +1903,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1883,19 +1939,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1907,87 +1963,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42982</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42983</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42984</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42985</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42986</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42987</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42988</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1996,34 +2052,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2032,6 +2088,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2040,16 +2106,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,7 +2119,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2073,19 +2129,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2097,87 +2153,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2186,34 +2242,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2222,19 +2278,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2246,87 +2302,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2335,34 +2391,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2402,7 +2458,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2412,19 +2468,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2436,87 +2492,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2525,34 +2581,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2561,19 +2617,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2585,87 +2641,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2674,34 +2730,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2741,6 +2797,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2751,13 +3146,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2775,47 +3170,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2900,13 +3295,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2924,47 +3319,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3049,16 +3444,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3067,6 +3452,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3074,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3090,32 +3485,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3124,8 +3519,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3575,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="53" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3200,7 +3595,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3218,7 +3613,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3631,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3256,7 +3651,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3274,7 +3669,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3687,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3312,7 +3707,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3330,7 +3725,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3763,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3388,7 +3783,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3406,7 +3801,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3424,7 +3819,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="51" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3444,7 +3839,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3462,7 +3857,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3480,7 +3875,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3500,7 +3895,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3518,7 +3913,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3576,7 +3971,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3596,7 +3991,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3614,7 +4009,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3634,7 +4029,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3652,7 +4047,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3670,7 +4065,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3688,7 +4083,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3706,7 +4101,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3724,7 +4119,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3742,7 +4137,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3760,7 +4155,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3778,7 +4173,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3796,7 +4191,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3815,11 +4210,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3830,6 +4220,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3843,7 +4238,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="K9" activeCellId="1" sqref="J9 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3853,19 +4248,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3877,87 +4272,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,14)</f>
-        <v>42961</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42962</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42963</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42964</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42965</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42966</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42967</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3966,34 +4361,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4002,19 +4397,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4026,87 +4421,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42973</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42974</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4115,34 +4510,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4151,6 +4546,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4164,11 +4564,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4192,19 +4587,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4216,87 +4611,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4305,34 +4700,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4341,19 +4736,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4365,87 +4760,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42968</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42969</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42970</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42971</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42972</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42973</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4454,34 +4849,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4521,7 +4916,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4531,19 +4926,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4555,87 +4950,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,31)</f>
-        <v>42947</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42948</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42955</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42949</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42956</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42950</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42957</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42951</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42958</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42952</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42959</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42953</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4644,31 +5039,31 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>113</v>
@@ -4680,19 +5075,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4704,87 +5099,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42954</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42955</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42962</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42956</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42963</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42957</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42964</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42958</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42965</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42959</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42966</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42960</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4793,34 +5188,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -4860,7 +5255,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4870,19 +5265,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4894,87 +5289,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,31)</f>
+        <v>42947</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42948</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42949</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42950</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42951</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42952</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42953</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4983,34 +5378,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5019,19 +5414,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5043,87 +5438,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42954</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42955</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42956</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42957</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42958</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42959</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42960</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5132,34 +5527,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5199,7 +5594,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5209,19 +5604,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5233,87 +5628,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5322,34 +5717,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5358,19 +5753,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5382,87 +5777,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5471,34 +5866,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5538,7 +5933,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5548,19 +5943,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5572,87 +5967,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5667,28 +6062,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5697,19 +6092,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5721,87 +6116,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5810,34 +6205,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5846,6 +6241,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -5859,11 +6259,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5872,6 +6267,345 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -5887,13 +6621,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5911,47 +6645,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -6036,13 +6770,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6060,47 +6794,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -6185,6 +6919,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -6198,350 +6937,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -12,27 +12,28 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 35-36" sheetId="18" r:id="rId1"/>
-    <sheet name="Week 34-35" sheetId="17" r:id="rId2"/>
-    <sheet name="Week 33-34" sheetId="16" r:id="rId3"/>
-    <sheet name="Week 32-33" sheetId="15" r:id="rId4"/>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId5"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId6"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId7"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId8"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId9"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId10"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId11"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId12"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId13"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="Week 36-37" sheetId="19" r:id="rId1"/>
+    <sheet name="Week 35-36" sheetId="18" r:id="rId2"/>
+    <sheet name="Week 34-35" sheetId="17" r:id="rId3"/>
+    <sheet name="Week 33-34" sheetId="16" r:id="rId4"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId5"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId6"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId7"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId8"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId9"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId10"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId11"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId12"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId13"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId14"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="163">
   <si>
     <t>分组</t>
   </si>
@@ -626,6 +627,63 @@
   <si>
     <t>威商行移动营销业务集成无纸化合成模板运行监控
 编制项目文档（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控正常
+编制测试案例、测试计划、测试报告文档
+郑州银行优先贷业务集成开发配合，了解业务场景，提供解决方案和demo、接口文档（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控正常
+提交全套项目文档，项目离场
+郑州银行优先贷业务集成开发配合，明确对接详细设计（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控正常
+编制测试案例、测试计划、测试报告文档
+吉林亿联银行沟通个人证书签章方案，对比场景证书、云证通等多种组合方案进行介绍（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控正常
+编制测试案例、测试计划、测试报告文档
+吉林亿联银行最终确认紧急上线，先采用场景证书方案，签章无法连接CA，确认问题为行方提供IP有误，紧急协调运营、运行部配合工单推进
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控正常
+提交全套项目文档，项目离场
+郑州银行优先贷业务集成开发配合，了解业务场景，提供解决方案和demo、接口文档（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威商行移动营销业务集成无纸化合成模板运行监控正常
+提交全套项目文档，项目离场
+郑州银行优先贷业务集成开发配合，明确对接详细设计（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品规划会议
+郑州银行优先贷业务集成开发配合，沟通trustsignpdf接口使用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行优先贷业务集成配合
+项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品规划会议
+郑州银行优先贷业务集成开发配合，调试trustsignpdf接口使用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品规划会议
+郑州银行优先贷业务集成开发配合，调试trustsignpdf接口使用</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,6 +1399,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,6 +1411,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,21 +1433,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1779,8 +1840,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1790,19 +1851,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1814,87 +1875,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,8,28)</f>
-        <v>42975</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42976</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42977</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42978</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42979</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42980</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42981</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
+      <c r="C3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1903,34 +1964,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1939,19 +2000,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1963,87 +2024,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42982</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42983</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42984</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42985</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42986</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42987</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42988</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2052,373 +2113,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="45">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2452,13 +2174,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2468,19 +2190,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2492,87 +2214,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2581,34 +2303,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2617,19 +2339,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2641,87 +2363,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2730,34 +2452,373 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2797,7 +2858,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2807,19 +2868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2831,87 +2892,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2920,34 +2981,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2956,19 +3017,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2980,87 +3041,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3069,34 +3130,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3136,6 +3197,345 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3146,13 +3546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3170,47 +3570,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -3295,13 +3695,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3319,47 +3719,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3444,6 +3844,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -3452,16 +3862,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3469,7 +3869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3485,32 +3885,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3519,8 +3919,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3575,7 +3975,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3595,7 +3995,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +4013,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3631,7 +4031,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3651,7 +4051,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3669,7 +4069,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3687,7 +4087,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3707,7 +4107,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3725,7 +4125,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3763,7 +4163,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3783,7 +4183,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="51"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3801,7 +4201,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3819,7 +4219,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3839,7 +4239,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3857,7 +4257,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +4275,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3895,7 +4295,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="51"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3913,7 +4313,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3971,7 +4371,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3991,7 +4391,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4009,7 +4409,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4029,7 +4429,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4047,7 +4447,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4065,7 +4465,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4483,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4101,7 +4501,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4119,7 +4519,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4137,7 +4537,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4155,7 +4555,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4173,7 +4573,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4191,7 +4591,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4210,6 +4610,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4220,11 +4625,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4233,6 +4633,345 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>35</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,8,28)</f>
+        <v>42975</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42976</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42977</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42978</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42979</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42980</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42981</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>36</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42982</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42983</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42984</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42985</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42986</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42987</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42988</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4248,13 +4987,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4272,47 +5011,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <f>DATE(2017,8,21)</f>
         <v>42968</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42969</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42970</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42971</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42972</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42973</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42974</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="43" t="s">
         <v>127</v>
       </c>
@@ -4397,13 +5136,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4421,47 +5160,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42975</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42976</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42977</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42978</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42979</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42980</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42981</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
@@ -4546,11 +5285,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4564,345 +5298,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>33</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,8,14)</f>
-        <v>42961</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
-        <f>SUM(B2+1)</f>
-        <v>42962</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42963</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42964</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42965</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42966</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42967</v>
-      </c>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>34</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="45">
-        <f>B2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42973</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42974</v>
-      </c>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4926,19 +5326,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4950,87 +5350,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5039,34 +5439,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5075,19 +5475,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5099,87 +5499,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42969</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42970</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42972</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42973</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5188,34 +5588,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5255,7 +5655,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5265,19 +5665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5289,87 +5689,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,31)</f>
-        <v>42947</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42948</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42955</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42949</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42956</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42950</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42957</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42951</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42958</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42952</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42959</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42953</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5378,31 +5778,31 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>113</v>
@@ -5414,19 +5814,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5438,87 +5838,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42954</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42955</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42962</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42956</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42963</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42957</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42958</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42965</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42959</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42966</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42960</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5527,34 +5927,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5594,7 +5994,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5604,19 +6004,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5628,87 +6028,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,31)</f>
+        <v>42947</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42948</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42949</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42950</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42951</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42952</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42953</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5717,34 +6117,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5753,19 +6153,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5777,87 +6177,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42954</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42955</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42956</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42957</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42958</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42959</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42960</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5866,34 +6266,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5933,7 +6333,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5943,19 +6343,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5967,87 +6367,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6056,34 +6456,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -6092,19 +6492,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -6116,87 +6516,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6205,34 +6605,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -6272,7 +6672,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6282,19 +6682,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -6306,87 +6706,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6401,28 +6801,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -6431,19 +6831,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -6455,87 +6855,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6544,34 +6944,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -6580,11 +6980,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -6598,6 +6993,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6611,7 +7011,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6621,19 +7021,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -6645,87 +7045,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6740,28 +7140,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -6770,19 +7170,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -6794,87 +7194,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6919,11 +7319,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -6937,6 +7332,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Process-library\Weekly Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 36-37" sheetId="19" r:id="rId1"/>
-    <sheet name="Week 35-36" sheetId="18" r:id="rId2"/>
-    <sheet name="Week 34-35" sheetId="17" r:id="rId3"/>
-    <sheet name="Week 33-34" sheetId="16" r:id="rId4"/>
-    <sheet name="Week 32-33" sheetId="15" r:id="rId5"/>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId6"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId7"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId8"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId9"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId10"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId11"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId12"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId13"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId14"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId15"/>
+    <sheet name="Week 37-38" sheetId="20" r:id="rId1"/>
+    <sheet name="Week 36-37" sheetId="19" r:id="rId2"/>
+    <sheet name="Week 35-36" sheetId="18" r:id="rId3"/>
+    <sheet name="Week 34-35" sheetId="17" r:id="rId4"/>
+    <sheet name="Week 33-34" sheetId="16" r:id="rId5"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId6"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId7"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId8"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId9"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId10"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId11"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId12"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId13"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId14"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId15"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="170">
   <si>
     <t>分组</t>
   </si>
@@ -625,11 +631,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>郑州优先贷集成
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>工作汇报PPT准备</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -644,13 +645,93 @@
   </si>
   <si>
     <t>RA、PKI学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州优先贷集成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州优先贷集成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+亿联银行开通白名单工作推动
+郑州银行weblogic服务重启配合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国神华场景证书使用沟通
+工作汇报准备
+亿联银行网贷签章联调
+项目管理培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国神华场景证书使用沟通及回复
+工作汇报准备
+亿联银行网贷签章联调</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东网银联盟无纸化项目交接
+签章文件大小问题跟进
+上线文件检查及沟通
+亿联银行网贷签章联调
+部署CA（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山盟无纸化数据库初始化文件准备
+沟通数据库用户权限控制问题
+沟通签章文件大小问题
+检查生产环境部署情况
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东网银联盟无纸化项目交接
+签章文件大小问题跟进
+上线文件检查及沟通
+亿联银行网贷签章联调（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山盟无纸化数据库初始化文件准备
+沟通数据库用户权限控制问题
+沟通签章文件大小问题
+检查生产环境部署情况
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山盟无纸化生产环境部署
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山盟无纸化生产环境高可用性验证
+CA部署
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作汇报准备
+三星保险准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA部署
+OA方案
+三星保险准备</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
@@ -1223,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1400,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1796,12 +1880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1811,19 +1895,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1835,87 +1919,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,9,11)</f>
-        <v>42989</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="47">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
-        <v>42990</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42991</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42992</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42993</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42994</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42995</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="45" t="s">
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1924,34 +2008,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1960,19 +2044,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1984,87 +2068,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
-        <v>42996</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42997</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42998</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42999</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43000</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43001</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43002</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="45" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2073,34 +2157,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2135,12 +2219,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2150,19 +2234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2174,87 +2258,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="47">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2269,28 +2353,28 @@
         <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2299,19 +2383,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2323,87 +2407,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2474,12 +2558,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2489,19 +2573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2513,87 +2597,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="47">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2602,34 +2686,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2638,19 +2722,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2662,87 +2746,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2813,7 +2897,346 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="47">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="47">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2828,13 +3251,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2852,47 +3275,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -2977,13 +3400,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3001,47 +3424,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3151,8 +3574,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3167,13 +3590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3191,47 +3614,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -3316,13 +3739,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3340,47 +3763,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -3490,8 +3913,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3506,13 +3929,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3530,47 +3953,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -3655,13 +4078,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3679,47 +4102,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3829,8 +4252,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -3845,32 +4268,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3879,8 +4302,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3935,7 +4358,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3955,7 +4378,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3973,7 +4396,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3991,7 +4414,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4011,7 +4434,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4029,7 +4452,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4470,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4067,7 +4490,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4085,7 +4508,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4123,7 +4546,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4143,7 +4566,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4161,7 +4584,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4179,7 +4602,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4199,7 +4622,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4217,7 +4640,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4235,7 +4658,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4255,7 +4678,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4273,7 +4696,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4331,7 +4754,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4351,7 +4774,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4369,7 +4792,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4389,7 +4812,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4407,7 +4830,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4425,7 +4848,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4443,7 +4866,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4461,7 +4884,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4479,7 +4902,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4497,7 +4920,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4515,7 +4938,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4533,7 +4956,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4551,7 +4974,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4593,7 +5016,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>37</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="47">
+        <f>DATE(2017,9,11)</f>
+        <v>42989</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
+        <f>SUM(B2+1)</f>
+        <v>42990</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42991</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42992</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42993</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42994</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42995</v>
+      </c>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>38</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="47">
+        <f>B2+7</f>
+        <v>42996</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42997</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42998</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42999</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>43000</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>43001</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>43002</v>
+      </c>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4608,13 +5370,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4632,47 +5394,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,8,28)</f>
         <v>42975</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42976</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42977</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42978</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42979</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42980</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42981</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="44" t="s">
         <v>127</v>
       </c>
@@ -4757,13 +5519,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4781,47 +5543,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42982</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42983</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42984</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42985</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42986</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42987</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42988</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="44" t="s">
         <v>2</v>
       </c>
@@ -4898,345 +5660,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" activeCellId="1" sqref="J9 K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5271,12 +5694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="K9" activeCellId="1" sqref="J9 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5286,19 +5709,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5310,87 +5733,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,8,14)</f>
-        <v>42961</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="47">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
-        <v>42962</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42963</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42964</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42965</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42966</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42967</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5399,34 +5822,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5435,19 +5858,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5459,87 +5882,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42973</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42974</v>
-      </c>
-      <c r="O7" s="46"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5548,34 +5971,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5610,7 +6033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5625,19 +6048,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5649,87 +6072,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="B2" s="47">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="46"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5738,34 +6161,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5774,19 +6197,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5798,47 +6221,386 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
+        <f>B2+7</f>
+        <v>42968</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42969</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42970</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42971</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42972</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42973</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="47">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42961</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42962</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42963</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42964</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42965</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42966</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42967</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
@@ -5948,8 +6710,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5964,13 +6726,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -5988,47 +6750,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,7,31)</f>
         <v>42947</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42948</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42949</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42950</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42951</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42952</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42953</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
@@ -6113,13 +6875,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6137,47 +6899,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42954</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42955</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42956</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42957</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42958</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42959</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42960</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="40" t="s">
         <v>2</v>
       </c>
@@ -6287,8 +7049,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6303,13 +7065,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -6327,47 +7089,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
@@ -6452,13 +7214,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6476,47 +7238,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -6626,8 +7388,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6642,13 +7404,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -6666,47 +7428,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -6791,13 +7553,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -6815,47 +7577,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -6932,345 +7694,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,29 +12,30 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 37-38" sheetId="20" r:id="rId1"/>
-    <sheet name="Week 36-37" sheetId="19" r:id="rId2"/>
-    <sheet name="Week 35-36" sheetId="18" r:id="rId3"/>
-    <sheet name="Week 34-35" sheetId="17" r:id="rId4"/>
-    <sheet name="Week 33-34" sheetId="16" r:id="rId5"/>
-    <sheet name="Week 32-33" sheetId="15" r:id="rId6"/>
-    <sheet name="Week 31-32" sheetId="14" r:id="rId7"/>
-    <sheet name="Week 30-31" sheetId="13" r:id="rId8"/>
-    <sheet name="Week 29-30" sheetId="12" r:id="rId9"/>
-    <sheet name="Week 28-29" sheetId="11" r:id="rId10"/>
-    <sheet name="Week 27-28" sheetId="10" r:id="rId11"/>
-    <sheet name="Week 26-27" sheetId="9" r:id="rId12"/>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId13"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId14"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId15"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId16"/>
+    <sheet name="Week 38-40" sheetId="21" r:id="rId1"/>
+    <sheet name="Week 37-38" sheetId="20" r:id="rId2"/>
+    <sheet name="Week 36-37" sheetId="19" r:id="rId3"/>
+    <sheet name="Week 35-36" sheetId="18" r:id="rId4"/>
+    <sheet name="Week 34-35" sheetId="17" r:id="rId5"/>
+    <sheet name="Week 33-34" sheetId="16" r:id="rId6"/>
+    <sheet name="Week 32-33" sheetId="15" r:id="rId7"/>
+    <sheet name="Week 31-32" sheetId="14" r:id="rId8"/>
+    <sheet name="Week 30-31" sheetId="13" r:id="rId9"/>
+    <sheet name="Week 29-30" sheetId="12" r:id="rId10"/>
+    <sheet name="Week 28-29" sheetId="11" r:id="rId11"/>
+    <sheet name="Week 27-28" sheetId="10" r:id="rId12"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId13"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId14"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId15"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId16"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="180">
   <si>
     <t>分组</t>
   </si>
@@ -725,6 +726,55 @@
     <t>CA部署
 OA方案
 三星保险准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人民银行OA方案
+沟通海尔消费金融项目情况</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融项目实施（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融测试环境搭建
+与开发人员沟通开发细节和demo实现方法（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融测试环境搭建
+与开发人员沟通开发细节和demo实现方法
+与DBA沟通数据库脚本索引过多对性能的潜在影响（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融实施方案、部署文档、操作文档的编制和移交
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融沟通场景证书证据固化
+客户提出图形化签章量数据的需求待与开发沟通
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与海尔财务公司云证通+无纸化售前交流
+亿联银行密码控件问题配合
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融实施（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案研究</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +786,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +948,48 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1304,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,16 +1535,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,19 +1568,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1884,8 +2003,352 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="61" customWidth="1"/>
+    <col min="2" max="15" width="26.625" style="61" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="59">
+        <f>WEEKNUM(B2)</f>
+        <v>39</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63">
+        <f>DATE(2017,9,25)</f>
+        <v>43003</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
+        <f>SUM(B2+1)</f>
+        <v>43004</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>43005</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>43006</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>43007</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>43008</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>43009</v>
+      </c>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="66" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="59">
+        <f>WEEKNUM(B7)</f>
+        <v>41</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B2+7+7</f>
+        <v>43017</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
+        <f>D2+7+7</f>
+        <v>43018</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
+        <f>F2+7+7</f>
+        <v>43019</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
+        <f t="shared" ref="H7:O7" si="5">H2+7+7</f>
+        <v>43020</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
+        <f t="shared" ref="J7:O7" si="6">J2+7+7</f>
+        <v>43021</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
+        <f t="shared" ref="L7:O7" si="7">L2+7+7</f>
+        <v>43022</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
+        <f t="shared" ref="N7:O7" si="8">N2+7+7</f>
+        <v>43023</v>
+      </c>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="66" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1895,19 +2358,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1919,87 +2382,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="47"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="46" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2008,34 +2471,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2044,19 +2507,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2068,87 +2531,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="47"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2157,34 +2620,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2218,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2234,13 +2697,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2258,47 +2721,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="47"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
@@ -2383,13 +2846,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2407,47 +2870,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
@@ -2532,11 +2995,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2550,6 +3008,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2557,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2573,13 +3036,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2597,47 +3060,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="47"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -2722,13 +3185,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2746,47 +3209,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -2871,11 +3334,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2889,6 +3347,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,7 +3359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2912,13 +3375,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2936,47 +3399,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="47"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -3061,13 +3524,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3085,47 +3548,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -3202,345 +3665,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="47">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="47">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="47"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3580,7 +3704,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3590,19 +3714,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3614,87 +3738,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="B2" s="46">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="47"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3703,34 +3827,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3739,19 +3863,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3763,87 +3887,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="47"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3852,34 +3976,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3919,7 +4043,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3929,19 +4053,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3953,87 +4077,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="B2" s="46">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+        <v>42899</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+        <v>42900</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+        <v>42901</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+        <v>42902</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+        <v>42903</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="47"/>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4042,34 +4166,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4078,19 +4202,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4102,87 +4226,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+        <v>42905</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+        <v>42906</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+        <v>42907</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+        <v>42908</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+        <v>42909</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+        <v>42910</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="47"/>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4191,22 +4315,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>68</v>
@@ -4219,1108 +4343,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-    </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>37</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="47">
-        <f>DATE(2017,9,11)</f>
-        <v>42989</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
-        <f>SUM(B2+1)</f>
-        <v>42990</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42991</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42992</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42993</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42994</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42995</v>
-      </c>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>38</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="47">
-        <f>B2+7</f>
-        <v>42996</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42997</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42998</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42999</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43000</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43001</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43002</v>
-      </c>
-      <c r="O7" s="47"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -5354,13 +4376,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5370,19 +4392,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5394,87 +4416,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="47">
-        <f>DATE(2017,8,28)</f>
-        <v>42975</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="B2" s="46">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42976</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+        <v>42892</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42977</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+        <v>42893</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42978</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+        <v>42894</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42979</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+        <v>42895</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42980</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+        <v>42896</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42981</v>
-      </c>
-      <c r="O2" s="47"/>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5483,34 +4505,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -5519,19 +4541,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5543,87 +4565,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42982</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+        <v>42898</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42983</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+        <v>42899</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42984</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+        <v>42900</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42985</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+        <v>42901</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42986</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47">
+        <v>42902</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42987</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47">
+        <v>42903</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42988</v>
-      </c>
-      <c r="O7" s="47"/>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5632,34 +4654,1476 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>151</v>
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="A4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="50"/>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1">
+      <c r="A17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="50"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="A25" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1">
+      <c r="A27" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1">
+      <c r="A35" s="52"/>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1">
+      <c r="A37" s="52"/>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="61" customWidth="1"/>
+    <col min="2" max="15" width="26.625" style="61" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="59">
+        <f>WEEKNUM(B2)</f>
+        <v>38</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
+        <f>SUM(B2+1)</f>
+        <v>42997</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42998</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42999</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>43000</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>43001</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="66" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="59">
+        <f>WEEKNUM(B7)</f>
+        <v>39</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B2+7</f>
+        <v>43003</v>
+      </c>
+      <c r="C7" s="63"/